--- a/Input_data/testing_copy1.xlsx
+++ b/Input_data/testing_copy1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="830" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="830" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Content" sheetId="19" r:id="rId1"/>
@@ -5098,6 +5098,7 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5155,7 +5156,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -5485,12 +5485,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="368" t="s">
+      <c r="B2" s="369" t="s">
         <v>509</v>
       </c>
-      <c r="C2" s="368"/>
-      <c r="D2" s="368"/>
-      <c r="E2" s="368"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="369"/>
     </row>
     <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="110" t="s">
@@ -5697,21 +5697,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="384" t="s">
+      <c r="A1" s="385" t="s">
         <v>419</v>
       </c>
       <c r="C1" s="163"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="384"/>
+      <c r="A2" s="385"/>
       <c r="C2" s="164"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="384"/>
+      <c r="A3" s="385"/>
       <c r="C3" s="163"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="384"/>
+      <c r="A4" s="385"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="165"/>
@@ -11491,21 +11491,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="384" t="s">
+      <c r="A1" s="385" t="s">
         <v>419</v>
       </c>
       <c r="C1" s="163"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="384"/>
+      <c r="A2" s="385"/>
       <c r="C2" s="164"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="384"/>
+      <c r="A3" s="385"/>
       <c r="C3" s="163"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="384"/>
+      <c r="A4" s="385"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="165"/>
@@ -17333,7 +17333,7 @@
       <c r="N134" s="250">
         <v>43293</v>
       </c>
-      <c r="O134" s="387" t="s">
+      <c r="O134" s="368" t="s">
         <v>139</v>
       </c>
     </row>
@@ -17450,28 +17450,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="385" t="s">
+      <c r="A1" s="386" t="s">
         <v>424</v>
       </c>
-      <c r="B1" s="385"/>
-      <c r="C1" s="385"/>
-      <c r="D1" s="385"/>
-      <c r="E1" s="385"/>
-      <c r="F1" s="385"/>
-      <c r="G1" s="385"/>
-      <c r="H1" s="385"/>
-      <c r="I1" s="385"/>
-      <c r="J1" s="385"/>
-      <c r="K1" s="385"/>
+      <c r="B1" s="386"/>
+      <c r="C1" s="386"/>
+      <c r="D1" s="386"/>
+      <c r="E1" s="386"/>
+      <c r="F1" s="386"/>
+      <c r="G1" s="386"/>
+      <c r="H1" s="386"/>
+      <c r="I1" s="386"/>
+      <c r="J1" s="386"/>
+      <c r="K1" s="386"/>
     </row>
     <row r="2" spans="1:11" s="265" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="263"/>
       <c r="B2" s="263"/>
       <c r="C2" s="263"/>
-      <c r="D2" s="385" t="s">
+      <c r="D2" s="386" t="s">
         <v>425</v>
       </c>
-      <c r="E2" s="385"/>
+      <c r="E2" s="386"/>
       <c r="F2" s="264">
         <v>43784</v>
       </c>
@@ -19419,7 +19419,7 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -20267,23 +20267,23 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="3"/>
-      <c r="E1" s="386" t="s">
+      <c r="E1" s="387" t="s">
         <v>419</v>
       </c>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D2" s="2"/>
-      <c r="E2" s="386"/>
+      <c r="E2" s="387"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
-      <c r="E3" s="386"/>
+      <c r="E3" s="387"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E4" s="386"/>
+      <c r="E4" s="387"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E5" s="62"/>
@@ -26972,23 +26972,23 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="3"/>
-      <c r="E1" s="386" t="s">
+      <c r="E1" s="387" t="s">
         <v>419</v>
       </c>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D2" s="2"/>
-      <c r="E2" s="386"/>
+      <c r="E2" s="387"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
-      <c r="E3" s="386"/>
+      <c r="E3" s="387"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E4" s="386"/>
+      <c r="E4" s="387"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E5" s="62"/>
@@ -34169,21 +34169,21 @@
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="369" t="s">
+      <c r="B4" s="370" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="369"/>
+      <c r="B5" s="370"/>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="369"/>
+      <c r="B6" s="370"/>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="369"/>
+      <c r="B7" s="370"/>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="369"/>
+      <c r="B8" s="370"/>
     </row>
     <row r="11" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -34228,21 +34228,21 @@
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="370" t="s">
+      <c r="B4" s="371" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="370"/>
+      <c r="B5" s="371"/>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="370"/>
+      <c r="B6" s="371"/>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="370"/>
+      <c r="B7" s="371"/>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="370"/>
+      <c r="B8" s="371"/>
     </row>
     <row r="11" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -34341,20 +34341,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="378"/>
-      <c r="B1" s="378"/>
-      <c r="C1" s="378"/>
+      <c r="A1" s="379"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="379" t="s">
+      <c r="A2" s="380" t="s">
         <v>443</v>
       </c>
-      <c r="B2" s="379"/>
-      <c r="C2" s="380" t="s">
+      <c r="B2" s="380"/>
+      <c r="C2" s="381" t="s">
         <v>444</v>
       </c>
-      <c r="D2" s="380"/>
-      <c r="E2" s="380"/>
+      <c r="D2" s="381"/>
+      <c r="E2" s="381"/>
       <c r="G2" s="113"/>
       <c r="H2" s="114"/>
     </row>
@@ -34368,10 +34368,10 @@
       <c r="C3" s="115" t="s">
         <v>447</v>
       </c>
-      <c r="D3" s="380" t="s">
+      <c r="D3" s="381" t="s">
         <v>448</v>
       </c>
-      <c r="E3" s="380"/>
+      <c r="E3" s="381"/>
       <c r="G3" s="113"/>
       <c r="H3" s="116"/>
     </row>
@@ -34469,7 +34469,7 @@
       <c r="C8" s="128" t="s">
         <v>512</v>
       </c>
-      <c r="D8" s="381"/>
+      <c r="D8" s="382"/>
       <c r="E8" s="121">
         <v>12058.27</v>
       </c>
@@ -34489,7 +34489,7 @@
       <c r="C9" s="130">
         <v>41533</v>
       </c>
-      <c r="D9" s="382"/>
+      <c r="D9" s="383"/>
       <c r="E9" s="121">
         <v>17489.89</v>
       </c>
@@ -34509,7 +34509,7 @@
       <c r="C10" s="128" t="s">
         <v>455</v>
       </c>
-      <c r="D10" s="381"/>
+      <c r="D10" s="382"/>
       <c r="E10" s="121">
         <v>5433.44</v>
       </c>
@@ -34529,7 +34529,7 @@
       <c r="C11" s="130">
         <v>41703</v>
       </c>
-      <c r="D11" s="383"/>
+      <c r="D11" s="384"/>
       <c r="E11" s="121">
         <v>6240.03</v>
       </c>
@@ -34549,7 +34549,7 @@
       <c r="C12" s="134">
         <v>41708</v>
       </c>
-      <c r="D12" s="382"/>
+      <c r="D12" s="383"/>
       <c r="E12" s="121">
         <v>17225.91</v>
       </c>
@@ -34563,11 +34563,11 @@
         <v>41699</v>
       </c>
       <c r="B13" s="136"/>
-      <c r="C13" s="371" t="s">
+      <c r="C13" s="372" t="s">
         <v>457</v>
       </c>
-      <c r="D13" s="372"/>
-      <c r="E13" s="373"/>
+      <c r="D13" s="373"/>
+      <c r="E13" s="374"/>
       <c r="H13" s="133"/>
       <c r="M13" s="133" t="s">
         <v>516</v>
@@ -34622,7 +34622,7 @@
       <c r="C16" s="124">
         <v>41817</v>
       </c>
-      <c r="D16" s="374"/>
+      <c r="D16" s="375"/>
       <c r="E16" s="127" t="s">
         <v>458</v>
       </c>
@@ -34641,7 +34641,7 @@
       <c r="C17" s="124">
         <v>41862</v>
       </c>
-      <c r="D17" s="374"/>
+      <c r="D17" s="375"/>
       <c r="E17" s="138">
         <v>8624.7800000000007</v>
       </c>
@@ -34677,7 +34677,7 @@
         <v>460</v>
       </c>
       <c r="C19" s="141"/>
-      <c r="D19" s="375"/>
+      <c r="D19" s="376"/>
       <c r="E19" s="142"/>
       <c r="F19" s="133" t="s">
         <v>522</v>
@@ -34697,7 +34697,7 @@
       <c r="C20" s="143">
         <v>41961</v>
       </c>
-      <c r="D20" s="375"/>
+      <c r="D20" s="376"/>
       <c r="E20" s="129">
         <v>4912.74</v>
       </c>
@@ -35033,10 +35033,10 @@
       <c r="E40" s="118">
         <v>14769.51</v>
       </c>
-      <c r="F40" s="376" t="s">
+      <c r="F40" s="377" t="s">
         <v>534</v>
       </c>
-      <c r="G40" s="377"/>
+      <c r="G40" s="378"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="124">
@@ -35052,8 +35052,8 @@
       <c r="E41" s="118">
         <v>47109.53</v>
       </c>
-      <c r="F41" s="376"/>
-      <c r="G41" s="377"/>
+      <c r="F41" s="377"/>
+      <c r="G41" s="378"/>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="124">
@@ -35069,8 +35069,8 @@
       <c r="E42" s="118" t="s">
         <v>480</v>
       </c>
-      <c r="F42" s="376"/>
-      <c r="G42" s="377"/>
+      <c r="F42" s="377"/>
+      <c r="G42" s="378"/>
     </row>
     <row r="43" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="124">
@@ -35082,8 +35082,8 @@
       <c r="C43" s="117"/>
       <c r="D43" s="117"/>
       <c r="E43" s="147"/>
-      <c r="F43" s="376"/>
-      <c r="G43" s="377"/>
+      <c r="F43" s="377"/>
+      <c r="G43" s="378"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="124">
@@ -35763,7 +35763,7 @@
   </sheetPr>
   <dimension ref="A1:S173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="F26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
@@ -35785,24 +35785,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="384" t="s">
+      <c r="A1" s="385" t="s">
         <v>419</v>
       </c>
       <c r="D1" s="163"/>
       <c r="G1" s="163"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="384"/>
+      <c r="A2" s="385"/>
       <c r="D2" s="164"/>
       <c r="G2" s="164"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="384"/>
+      <c r="A3" s="385"/>
       <c r="D3" s="163"/>
       <c r="G3" s="163"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="384"/>
+      <c r="A4" s="385"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E5" s="165"/>
@@ -37207,7 +37207,7 @@
       <c r="Q37" s="178">
         <v>43293</v>
       </c>
-      <c r="R37" s="387" t="s">
+      <c r="R37" s="368" t="s">
         <v>139</v>
       </c>
     </row>
